--- a/biology/Botanique/Polypogon_monspeliensis/Polypogon_monspeliensis.xlsx
+++ b/biology/Botanique/Polypogon_monspeliensis/Polypogon_monspeliensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polypogon monspeliensis, le Polypogon de Montpellier, est une espèce de plantes herbacées de la famille des Poacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (3 novembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (3 novembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Polypogon monspeliensis var. capensis Steud.
 Polypogon monspeliensis var. indicus Bhattacharya &amp; S.K. Jain
 Polypogon monspeliensis var. interrupta Trin.
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu d'avril à juin[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu d'avril à juin.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial et français[6]. En France l'espèce est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans la région Rhône-Alpes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial et français. En France l'espèce est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans la région Rhône-Alpes.
 </t>
         </is>
       </c>
